--- a/クリックポスト発送情報/20200827234330/英子日本发货表格8.27.xlsx
+++ b/クリックポスト発送情報/20200827234330/英子日本发货表格8.27.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -248,6 +248,34 @@
   <si>
     <t xml:space="preserve">6180024
 </t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628581538830</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628581538826</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628581538815</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628581538804</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628581538793</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628581538782</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628581538771</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -434,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1466,7 +1494,9 @@
       <c r="I2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -1491,7 +1521,9 @@
       <c r="I3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="15" t="s">
@@ -1516,7 +1548,9 @@
       <c r="I4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="23" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="15" t="s">
@@ -1541,7 +1575,9 @@
       <c r="I5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="15" t="s">
@@ -1566,7 +1602,9 @@
       <c r="I6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="15" t="s">
@@ -1591,7 +1629,9 @@
       <c r="I7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="23" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="15" t="s">
@@ -1616,7 +1656,9 @@
       <c r="I8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="23"/>
+      <c r="K8" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="10" spans="1:181" ht="121.95" customHeight="1"/>
